--- a/Finance Stuff.xlsx
+++ b/Finance Stuff.xlsx
@@ -1,33 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FFD5AE9-047E-4C88-AD6A-84F02949FB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574A13BC-1604-49D9-A131-F5F7F6083D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{726086AA-2305-4FBD-A1E6-D4B1666D6F83}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{726086AA-2305-4FBD-A1E6-D4B1666D6F83}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="6" r:id="rId1"/>
-    <sheet name="Normal Distribution" sheetId="7" r:id="rId2"/>
-    <sheet name="Cumulative Distribution Functio" sheetId="2" r:id="rId3"/>
-    <sheet name="Inverse CDF " sheetId="4" r:id="rId4"/>
-    <sheet name="Probability Mass Function" sheetId="3" r:id="rId5"/>
-    <sheet name="Black Scholes Model" sheetId="1" r:id="rId6"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId7"/>
+    <sheet name="Black Scholes Model" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="10" r:id="rId3"/>
+    <sheet name="Normal Distribution" sheetId="7" r:id="rId4"/>
+    <sheet name="Inverse CDF " sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId6"/>
+    <sheet name="Raw Data" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Black Scholes Model'!$B$17:$D$22</definedName>
-    <definedName name="K">'Black Scholes Model'!$D$19</definedName>
-    <definedName name="r_">'Black Scholes Model'!$D$21</definedName>
-    <definedName name="S">'Black Scholes Model'!$D$18</definedName>
-    <definedName name="T">'Black Scholes Model'!$D$20</definedName>
-    <definedName name="x">'Black Scholes Model'!$D$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Black Scholes Model'!$B$11:$D$16</definedName>
+    <definedName name="K">'Black Scholes Model'!$D$13</definedName>
+    <definedName name="r_">'Black Scholes Model'!$D$15</definedName>
+    <definedName name="S">'Black Scholes Model'!$D$12</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">Sheet3!$C$3,Sheet3!$C$4,Sheet3!$C$7</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">Sheet3!$C$3</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">Sheet3!$C$4</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">Sheet3!$C$7</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">Sheet3!$C$10</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">400</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">5</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">1500</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="T">'Black Scholes Model'!$D$14</definedName>
+    <definedName name="x">'Black Scholes Model'!$D$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t>Inputs</t>
   </si>
@@ -82,9 +118,6 @@
     <t>r</t>
   </si>
   <si>
-    <t>Calculations</t>
-  </si>
-  <si>
     <t>Call</t>
   </si>
   <si>
@@ -221,6 +254,72 @@
   </si>
   <si>
     <t>Effective Maturity</t>
+  </si>
+  <si>
+    <t>Colour Formatting</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Hard-Coded Data</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Calculations/Links from other sheets</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Calculations/Links from same sheets</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Data Worth Emphasizing (important assumptions, errors, unfinished logics etc).</t>
+  </si>
+  <si>
+    <t>Assumptions</t>
+  </si>
+  <si>
+    <t>Options Price</t>
+  </si>
+  <si>
+    <t>Possibilities</t>
+  </si>
+  <si>
+    <t>(what is d1 and d2?)</t>
+  </si>
+  <si>
+    <t>(use these inputs to play around to get intuition)</t>
+  </si>
+  <si>
+    <t>Watch youtube to get explanation</t>
+  </si>
+  <si>
+    <t>Units Sold</t>
+  </si>
+  <si>
+    <t>Price Per Unit</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Cost Per unit</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Best assumption is Standard Deviation of the Stock Price</t>
   </si>
 </sst>
 </file>
@@ -229,10 +328,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.000%"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,8 +351,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,8 +384,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE79B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -355,13 +485,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -370,7 +515,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -381,10 +525,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -393,6 +550,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFE79B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1353,6 +1515,55 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466349</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FCF9AF6-7BD1-A5FC-EFF5-027944C4161A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="104775"/>
+          <a:ext cx="3009524" cy="1628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>463825</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -1431,55 +1642,6 @@
         <a:xfrm>
           <a:off x="6409692" y="4671392"/>
           <a:ext cx="7231500" cy="3598665"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>447299</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>180771</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FCF9AF6-7BD1-A5FC-EFF5-027944C4161A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="1085850"/>
-          <a:ext cx="3009524" cy="1628571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1849,47 +2011,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4EE7612-B822-48E9-A812-83660EB5DE80}">
-  <dimension ref="B2:B9"/>
+  <dimension ref="B2:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>32</v>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B13" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="24" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1898,6 +2105,340 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08DD765-BD6C-42D5-A33C-49CD3C361C3C}">
+  <dimension ref="B11:K26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="11" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2">
+        <v>45</v>
+      </c>
+      <c r="F12" s="26">
+        <v>40</v>
+      </c>
+      <c r="G12" s="26">
+        <v>45</v>
+      </c>
+      <c r="H12" s="26">
+        <v>50</v>
+      </c>
+      <c r="I12" s="26">
+        <v>55</v>
+      </c>
+      <c r="J12" s="26">
+        <v>60</v>
+      </c>
+      <c r="K12" s="26">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2">
+        <v>35</v>
+      </c>
+      <c r="F13" s="26">
+        <v>30</v>
+      </c>
+      <c r="G13" s="26">
+        <v>35</v>
+      </c>
+      <c r="H13" s="26">
+        <v>40</v>
+      </c>
+      <c r="I13" s="26">
+        <v>45</v>
+      </c>
+      <c r="J13" s="26">
+        <v>50</v>
+      </c>
+      <c r="K13" s="26">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="26">
+        <v>1</v>
+      </c>
+      <c r="H14" s="26">
+        <v>2</v>
+      </c>
+      <c r="I14" s="26">
+        <v>3</v>
+      </c>
+      <c r="J14" s="26">
+        <v>4</v>
+      </c>
+      <c r="K14" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F15" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G15" s="26">
+        <v>0.06</v>
+      </c>
+      <c r="H15" s="26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I15" s="26">
+        <v>0.08</v>
+      </c>
+      <c r="J15" s="26">
+        <v>0.09</v>
+      </c>
+      <c r="K15" s="26">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="F16" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="G16" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="H16" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="I16" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="J16" s="26">
+        <v>1</v>
+      </c>
+      <c r="K16" s="26">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B21" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="6">
+        <f>(S*NORMDIST(D25, 0,1,TRUE)) - (K*(EXP(-r_*T)*_xlfn.NORM.DIST(D26,0,1,TRUE)))</f>
+        <v>19.073457035433385</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="8">
+        <f>K*EXP(-r_*T)*_xlfn.NORM.DIST(-D26, 0,1,TRUE) - S*_xlfn.NORM.DIST(-D25,0,1,TRUE)</f>
+        <v>8.2093039564250248</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="7"/>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="7"/>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="8">
+        <f>(LN(S/K) + (r_ + (x^2)/2)*T)/(x*T^0.5)</f>
+        <v>0.74990374534044968</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="9"/>
+      <c r="C26" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="11">
+        <f>D25-x*T^0.5</f>
+        <v>-9.8624392083407342E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B11:D16" xr:uid="{D08DD765-BD6C-42D5-A33C-49CD3C361C3C}"/>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12" xr:uid="{BCDB7771-3191-4753-9875-BD90CFE08B6A}">
+      <formula1>$F$12:$K$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13" xr:uid="{AD38E2C2-1972-48C0-98E0-84DB05263C85}">
+      <formula1>$F$13:$K$13</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14" xr:uid="{66132EDB-1EA1-4DD3-B553-78CF55EDC53D}">
+      <formula1>$F$14:$K$14</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15" xr:uid="{F5ED6F86-A093-4420-BF6E-B13E4A1E41E8}">
+      <formula1>$F$15:$K$15</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16" xr:uid="{68EDCA9B-7D5F-4D11-B732-8FE8D759D98F}">
+      <formula1>$F$16:$K$16</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F614EA1-6C06-4368-8755-6523549134DB}">
+  <dimension ref="B3:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5">
+        <f>C3*C4</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7">
+        <v>1.2499975000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8">
+        <f>C7*C3</f>
+        <v>499.99900000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10">
+        <f>C5-C8</f>
+        <v>1500.001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4D0A82-EB04-4947-9523-2A99B69E8812}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1909,26 +2450,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA0993F-997E-4908-A9DC-46F4ED0F0EC9}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0BB29F-C8A0-4BA9-924A-07F29BAA2A43}">
   <dimension ref="B3:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1938,41 +2465,44 @@
     <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8">
         <f>NORMSINV(0.99)</f>
         <v>2.3263478740408408</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C12">
         <f>NORMSINV(0.05)</f>
         <v>-1.6448536269514726</v>
@@ -1980,79 +2510,79 @@
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" t="s">
         <v>41</v>
-      </c>
-      <c r="D25" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="26" spans="3:9" ht="15" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D26">
-        <v>1.5E-3</v>
-      </c>
-      <c r="I26" s="16"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I26" s="15"/>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="3:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="C29" s="16" t="s">
-        <v>39</v>
+      <c r="C29" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="D29">
         <f>0.12*D31 + 0.24*D32</f>
-        <v>0.23132921835942635</v>
+        <v>0.17668398632892177</v>
       </c>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
-        <v>44</v>
+      <c r="C31" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="D31">
         <f>(1-(EXP(1)^(-50*D26))/(1-(EXP(1)^-50)))</f>
-        <v>7.2256513671447142E-2</v>
+        <v>0.52763344725898531</v>
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
-        <v>45</v>
+      <c r="C32" s="19" t="s">
+        <v>44</v>
       </c>
       <c r="D32">
         <f>1-D31</f>
-        <v>0.92774348632855286</v>
+        <v>0.47236655274101469</v>
       </c>
     </row>
     <row r="33" spans="3:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="C33" s="16" t="s">
-        <v>56</v>
+      <c r="C33" s="20" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="3:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="C34" s="16" t="s">
-        <v>40</v>
+      <c r="C34" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="D34">
         <f xml:space="preserve"> ((0.11852-0.05478*D35))^2</f>
-        <v>0.22535476374799049</v>
+        <v>0.1215079077589758</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
-        <v>47</v>
+      <c r="C35" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="D35">
         <f>LN(D26)</f>
-        <v>-6.5022901708739722</v>
+        <v>-4.1997050778799272</v>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D37">
         <v>0.5</v>
@@ -2060,52 +2590,52 @@
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>51</v>
-      </c>
-      <c r="D44" s="18">
+        <v>50</v>
+      </c>
+      <c r="D44" s="17">
         <f>D46*D45</f>
-        <v>15000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D45">
         <f>D37*D26</f>
-        <v>7.5000000000000002E-4</v>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" s="17">
+        <v>51</v>
+      </c>
+      <c r="D46" s="16">
         <v>20000000</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D51">
         <f>_xlfn.NORM.INV(D26,0,1)</f>
-        <v>-2.9677379253417828</v>
+        <v>-2.1700903775845601</v>
       </c>
     </row>
   </sheetData>
@@ -2114,168 +2644,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDAFCAB-5080-4F2B-96E8-0EE1FEEA8B95}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08DD765-BD6C-42D5-A33C-49CD3C361C3C}">
-  <dimension ref="B2:H24"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="6:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="F2" s="1"/>
-      <c r="G2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="6">
-        <f>(S*NORMDIST(H6, 0,1,TRUE)) - (K*(EXP(-r_*T)*_xlfn.NORM.DIST(H7,0,1,TRUE)))</f>
-        <v>2.6800536911250745</v>
-      </c>
-    </row>
-    <row r="4" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="9">
-        <f>K*EXP(-r_*T)*_xlfn.NORM.DIST(-H7, 0,1,TRUE) - S*_xlfn.NORM.DIST(-H6,0,1,TRUE)</f>
-        <v>1.7292306711536352</v>
-      </c>
-    </row>
-    <row r="5" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F6" s="7"/>
-      <c r="G6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="9">
-        <f>(LN(S/K) + (r_ + (x^2)/2)*T)/(x*T^0.5)</f>
-        <v>0.24524013160722549</v>
-      </c>
-    </row>
-    <row r="7" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F7" s="10"/>
-      <c r="G7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="12">
-        <f>H6-x*T^0.5</f>
-        <v>0.10381877536991596</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC3A2D4-FAE5-4BA0-8D50-738C8DA448A2}">
   <dimension ref="C1:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -2286,253 +2659,253 @@
   <sheetData>
     <row r="1" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>0</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <f>C3*3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>1</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <f>C4*3</f>
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>5</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <f t="shared" ref="D5:D18" si="0">C5*3</f>
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>3</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>5</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>3</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>5</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>7</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>8</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>9</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>11</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="13">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C15" s="14">
+      <c r="C15" s="13">
         <v>12</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C16" s="14">
+      <c r="C16" s="13">
         <v>13</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C17" s="14">
+      <c r="C17" s="13">
         <v>14</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="13">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C18" s="14">
+      <c r="C18" s="13">
         <v>15</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="13">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="15">
-        <f>_xlfn.NORM.DIST(D25,$D$25,$D$26, FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="D21" s="14">
+        <f t="shared" ref="D21:L21" si="1">_xlfn.NORM.DIST(D25,$D$25,$D$26, FALSE)</f>
         <v>0.3989422804014327</v>
       </c>
-      <c r="E21" s="15">
-        <f>_xlfn.NORM.DIST(E25,$D$25,$D$26, FALSE)</f>
+      <c r="E21" s="14">
+        <f t="shared" si="1"/>
         <v>1.4867195147342977E-6</v>
       </c>
-      <c r="F21" s="15">
-        <f>_xlfn.NORM.DIST(F25,$D$25,$D$26, FALSE)</f>
+      <c r="F21" s="14">
+        <f t="shared" si="1"/>
         <v>1.4867195147342977E-6</v>
       </c>
-      <c r="G21" s="15">
-        <f>_xlfn.NORM.DIST(G25,$D$25,$D$26, FALSE)</f>
+      <c r="G21" s="14">
+        <f t="shared" si="1"/>
         <v>1.4867195147342977E-6</v>
       </c>
-      <c r="H21" s="15">
-        <f>_xlfn.NORM.DIST(H25,$D$25,$D$26, FALSE)</f>
+      <c r="H21" s="14">
+        <f t="shared" si="1"/>
         <v>1.4867195147342977E-6</v>
       </c>
-      <c r="I21" s="15">
-        <f>_xlfn.NORM.DIST(I25,$D$25,$D$26, FALSE)</f>
+      <c r="I21" s="14">
+        <f t="shared" si="1"/>
         <v>1.4867195147342977E-6</v>
       </c>
-      <c r="J21" s="15">
-        <f>_xlfn.NORM.DIST(J25,$D$25,$D$26, FALSE)</f>
+      <c r="J21" s="14">
+        <f t="shared" si="1"/>
         <v>1.4867195147342977E-6</v>
       </c>
-      <c r="K21" s="15">
-        <f>_xlfn.NORM.DIST(K25,$D$25,$D$26, FALSE)</f>
+      <c r="K21" s="14">
+        <f t="shared" si="1"/>
         <v>1.4867195147342977E-6</v>
       </c>
-      <c r="L21" s="15">
-        <f>_xlfn.NORM.DIST(L25,$D$25,$D$26, FALSE)</f>
+      <c r="L21" s="14">
+        <f t="shared" si="1"/>
         <v>1.4867195147342977E-6</v>
       </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="15">
-        <f>_xlfn.NORM.DIST(D23,$D$25,$D$26, TRUE)</f>
+        <v>20</v>
+      </c>
+      <c r="D22" s="14">
+        <f t="shared" ref="D22:L22" si="2">_xlfn.NORM.DIST(D23,$D$25,$D$26, TRUE)</f>
         <v>3.1671241833119857E-5</v>
       </c>
-      <c r="E22" s="15">
-        <f>_xlfn.NORM.DIST(E23,$D$25,$D$26, TRUE)</f>
+      <c r="E22" s="14">
+        <f t="shared" si="2"/>
         <v>1.3498980316300933E-3</v>
       </c>
-      <c r="F22" s="15">
-        <f>_xlfn.NORM.DIST(F23,$D$25,$D$26, TRUE)</f>
+      <c r="F22" s="14">
+        <f t="shared" si="2"/>
         <v>2.2750131948179191E-2</v>
       </c>
-      <c r="G22" s="15">
-        <f>_xlfn.NORM.DIST(G23,$D$25,$D$26, TRUE)</f>
+      <c r="G22" s="14">
+        <f t="shared" si="2"/>
         <v>0.15865525393145699</v>
       </c>
-      <c r="H22" s="15">
-        <f>_xlfn.NORM.DIST(H23,$D$25,$D$26, TRUE)</f>
+      <c r="H22" s="14">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="I22" s="15">
-        <f>_xlfn.NORM.DIST(I23,$D$25,$D$26, TRUE)</f>
+      <c r="I22" s="14">
+        <f t="shared" si="2"/>
         <v>0.84134474606854304</v>
       </c>
-      <c r="J22" s="15">
-        <f>_xlfn.NORM.DIST(J23,$D$25,$D$26, TRUE)</f>
+      <c r="J22" s="14">
+        <f t="shared" si="2"/>
         <v>0.97724986805182079</v>
       </c>
-      <c r="K22" s="15">
-        <f>_xlfn.NORM.DIST(K23,$D$25,$D$26, TRUE)</f>
+      <c r="K22" s="14">
+        <f t="shared" si="2"/>
         <v>0.9986501019683699</v>
       </c>
-      <c r="L22" s="15">
-        <f>_xlfn.NORM.DIST(L23,$D$25,$D$26, TRUE)</f>
+      <c r="L22" s="14">
+        <f t="shared" si="2"/>
         <v>0.99996832875816688</v>
       </c>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2564,7 +2937,7 @@
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25">
         <v>5</v>
@@ -2572,7 +2945,7 @@
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2582,4 +2955,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D85E39-C215-4BC4-841E-B0D7C6B9B1DD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="18"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>